--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -88,6 +88,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,7 +494,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -544,7 +545,7 @@
         <v>43192</v>
       </c>
       <c r="E2" s="6">
-        <v>43200</v>
+        <v>43193</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -567,7 +568,7 @@
         <v>43192</v>
       </c>
       <c r="E3" s="9">
-        <v>43200</v>
+        <v>43193</v>
       </c>
       <c r="F3" s="2">
         <v>5000</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujun/gitPro/tutorial/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19095" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19100" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -66,15 +71,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -87,13 +92,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -156,8 +161,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -490,25 +495,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -542,10 +547,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>43192</v>
+        <v>43195</v>
       </c>
       <c r="E2" s="6">
-        <v>43193</v>
+        <v>43198</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -554,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -565,10 +570,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="9">
-        <v>43192</v>
+        <v>43196</v>
       </c>
       <c r="E3" s="9">
-        <v>43193</v>
+        <v>43200</v>
       </c>
       <c r="F3" s="2">
         <v>5000</v>
@@ -577,48 +582,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D16"/>
     </row>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
         <v>2500</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -579,7 +579,7 @@
         <v>5000</v>
       </c>
       <c r="G3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,10 +547,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="6">
-        <v>43195</v>
+        <v>43198</v>
       </c>
       <c r="E2" s="6">
-        <v>43198</v>
+        <v>43199</v>
       </c>
       <c r="F2">
         <v>2500</v>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="9">
-        <v>43196</v>
+        <v>43199</v>
       </c>
       <c r="E3" s="9">
         <v>43200</v>
